--- a/test_files_v1.3/e_fail_file_size_zero_bad_md5sum-v1.3.1.xlsx
+++ b/test_files_v1.3/e_fail_file_size_zero_bad_md5sum-v1.3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/CancerDataServices-SubmissionValidationR/test_files_v1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9135A3D5-A2C3-204D-B4C2-4C1ACD6B7182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4E918-2EED-0742-8402-3DE13308482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4360" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="1" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
   </bookViews>
   <sheets>
     <sheet name="README and INSTRUCTIONS" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10584" uniqueCount="10001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10584" uniqueCount="9999">
   <si>
     <t>CDS SUBMISSION METADATA TEMPLATE</t>
   </si>
@@ -29896,9 +29896,6 @@
     <t>tester</t>
   </si>
   <si>
-    <t>genomic</t>
-  </si>
-  <si>
     <t>['phs765432']</t>
   </si>
   <si>
@@ -29911,18 +29908,12 @@
     <t>s1-1</t>
   </si>
   <si>
-    <t>file1</t>
-  </si>
-  <si>
     <t>BAM</t>
   </si>
   <si>
     <t>3af5572206a86c5a65c8ea8fda6cb8f3</t>
   </si>
   <si>
-    <t>s3://file1</t>
-  </si>
-  <si>
     <t>paired</t>
   </si>
   <si>
@@ -29932,36 +29923,21 @@
     <t>s1-2</t>
   </si>
   <si>
-    <t>file2</t>
-  </si>
-  <si>
     <t>3af2275206a8655a65c8ea8fda6cb8f4</t>
   </si>
   <si>
-    <t>s3://file2</t>
-  </si>
-  <si>
     <t>s2-1</t>
   </si>
   <si>
-    <t>file3</t>
-  </si>
-  <si>
     <t>3af2272206a86c5a65c8ea8fda6cb8f5</t>
   </si>
   <si>
-    <t>s3://file3</t>
-  </si>
-  <si>
     <t>test3</t>
   </si>
   <si>
     <t>tester3</t>
   </si>
   <si>
-    <t>imaging</t>
-  </si>
-  <si>
     <t>Radiology</t>
   </si>
   <si>
@@ -30041,6 +30017,24 @@
   </si>
   <si>
     <t>s3://ayha.fastq</t>
+  </si>
+  <si>
+    <t>file1.bam</t>
+  </si>
+  <si>
+    <t>file2.bam</t>
+  </si>
+  <si>
+    <t>file3.bam</t>
+  </si>
+  <si>
+    <t>s3://file1.bam</t>
+  </si>
+  <si>
+    <t>s3://file2.bam</t>
+  </si>
+  <si>
+    <t>s3://file3.bam</t>
   </si>
 </sst>
 </file>
@@ -30995,7 +30989,7 @@
   <dimension ref="A1:CR7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31401,19 +31395,19 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>9952</v>
+        <v>9945</v>
       </c>
       <c r="I2" t="s">
         <v>319</v>
       </c>
       <c r="J2" t="s">
+        <v>9952</v>
+      </c>
+      <c r="K2" t="s">
         <v>9953</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="26" t="s">
         <v>9954</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>9955</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -31425,40 +31419,52 @@
         <v>9893</v>
       </c>
       <c r="AK2" t="s">
-        <v>9956</v>
+        <v>9955</v>
       </c>
       <c r="AN2" t="s">
         <v>4730</v>
       </c>
       <c r="AU2" t="s">
-        <v>9957</v>
+        <v>9993</v>
       </c>
       <c r="AV2" t="s">
-        <v>9958</v>
+        <v>9956</v>
       </c>
       <c r="AW2">
         <v>54664</v>
       </c>
       <c r="AX2" t="s">
-        <v>9959</v>
+        <v>9957</v>
       </c>
       <c r="AY2" t="s">
-        <v>9960</v>
+        <v>9996</v>
       </c>
       <c r="BD2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF2" t="s">
         <v>383</v>
       </c>
       <c r="BH2" t="s">
-        <v>9961</v>
+        <v>9958</v>
       </c>
       <c r="BI2" t="s">
         <v>466</v>
       </c>
       <c r="BL2" t="s">
-        <v>9962</v>
+        <v>9959</v>
+      </c>
+      <c r="BN2" s="7">
+        <v>654</v>
+      </c>
+      <c r="BO2" s="7">
+        <v>312</v>
+      </c>
+      <c r="BP2" s="7">
+        <v>2</v>
+      </c>
+      <c r="BQ2" s="7">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
@@ -31478,19 +31484,19 @@
         <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>9952</v>
+        <v>9945</v>
       </c>
       <c r="I3" t="s">
         <v>319</v>
       </c>
       <c r="J3" t="s">
+        <v>9952</v>
+      </c>
+      <c r="K3" t="s">
         <v>9953</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="26" t="s">
         <v>9954</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>9955</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -31502,40 +31508,52 @@
         <v>9893</v>
       </c>
       <c r="AK3" t="s">
-        <v>9963</v>
+        <v>9960</v>
       </c>
       <c r="AN3" t="s">
         <v>4727</v>
       </c>
       <c r="AU3" t="s">
-        <v>9964</v>
+        <v>9994</v>
       </c>
       <c r="AV3" t="s">
-        <v>9958</v>
+        <v>9956</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3" t="s">
-        <v>9965</v>
+        <v>9961</v>
       </c>
       <c r="AY3" t="s">
-        <v>9966</v>
+        <v>9997</v>
       </c>
       <c r="BD3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF3" t="s">
         <v>383</v>
       </c>
       <c r="BH3" t="s">
-        <v>9961</v>
+        <v>9958</v>
       </c>
       <c r="BI3" t="s">
         <v>466</v>
       </c>
       <c r="BL3" t="s">
-        <v>9962</v>
+        <v>9959</v>
+      </c>
+      <c r="BN3" s="7">
+        <v>54645</v>
+      </c>
+      <c r="BO3" s="7">
+        <v>2164</v>
+      </c>
+      <c r="BP3" s="7">
+        <v>15</v>
+      </c>
+      <c r="BQ3" s="7">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:96" x14ac:dyDescent="0.2">
@@ -31555,19 +31573,19 @@
         <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>9952</v>
+        <v>9945</v>
       </c>
       <c r="I4" t="s">
         <v>319</v>
       </c>
       <c r="J4" t="s">
+        <v>9952</v>
+      </c>
+      <c r="K4" t="s">
         <v>9953</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="26" t="s">
         <v>9954</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>9955</v>
       </c>
       <c r="AC4">
         <v>2</v>
@@ -31579,25 +31597,25 @@
         <v>9897</v>
       </c>
       <c r="AK4" t="s">
-        <v>9967</v>
+        <v>9962</v>
       </c>
       <c r="AN4" t="s">
         <v>4730</v>
       </c>
       <c r="AU4" t="s">
-        <v>9968</v>
+        <v>9995</v>
       </c>
       <c r="AV4" t="s">
-        <v>9958</v>
+        <v>9956</v>
       </c>
       <c r="AW4">
         <v>465498</v>
       </c>
       <c r="AX4" t="s">
-        <v>9969</v>
+        <v>9963</v>
       </c>
       <c r="AY4" t="s">
-        <v>9970</v>
+        <v>9998</v>
       </c>
       <c r="BD4">
         <v>3</v>
@@ -31606,24 +31624,36 @@
         <v>383</v>
       </c>
       <c r="BH4" t="s">
-        <v>9961</v>
+        <v>9958</v>
       </c>
       <c r="BI4" t="s">
         <v>466</v>
       </c>
       <c r="BL4" t="s">
-        <v>9962</v>
+        <v>9959</v>
+      </c>
+      <c r="BN4" s="7">
+        <v>65498</v>
+      </c>
+      <c r="BO4" s="7">
+        <v>135</v>
+      </c>
+      <c r="BP4" s="7">
+        <v>450</v>
+      </c>
+      <c r="BQ4" s="7">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>9971</v>
+        <v>9964</v>
       </c>
       <c r="C5" t="s">
-        <v>9971</v>
+        <v>9964</v>
       </c>
       <c r="D5" t="s">
-        <v>9972</v>
+        <v>9965</v>
       </c>
       <c r="F5">
         <v>42</v>
@@ -31632,22 +31662,22 @@
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>9973</v>
+        <v>9947</v>
       </c>
       <c r="I5" t="s">
-        <v>9974</v>
+        <v>9966</v>
       </c>
       <c r="J5" t="s">
-        <v>9975</v>
+        <v>9967</v>
       </c>
       <c r="K5" t="s">
         <v>9808</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>9976</v>
+        <v>9968</v>
       </c>
       <c r="AC5" t="s">
-        <v>9977</v>
+        <v>9969</v>
       </c>
       <c r="AD5" t="s">
         <v>9891</v>
@@ -31656,25 +31686,25 @@
         <v>9894</v>
       </c>
       <c r="AK5" t="s">
-        <v>9978</v>
+        <v>9970</v>
       </c>
       <c r="AN5" t="s">
         <v>4731</v>
       </c>
       <c r="AU5" t="s">
-        <v>9979</v>
+        <v>9971</v>
       </c>
       <c r="AV5" t="s">
-        <v>9980</v>
+        <v>9972</v>
       </c>
       <c r="AW5">
         <v>6548943487</v>
       </c>
       <c r="AX5" t="s">
-        <v>9981</v>
+        <v>9973</v>
       </c>
       <c r="AY5" t="s">
-        <v>9982</v>
+        <v>9974</v>
       </c>
       <c r="BD5">
         <v>5</v>
@@ -31691,16 +31721,28 @@
       <c r="BL5" t="s">
         <v>255</v>
       </c>
+      <c r="BN5" s="7">
+        <v>4987163</v>
+      </c>
+      <c r="BO5" s="7">
+        <v>13549</v>
+      </c>
+      <c r="BP5" s="7">
+        <v>1354</v>
+      </c>
+      <c r="BQ5" s="7">
+        <v>149</v>
+      </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9983</v>
+        <v>9975</v>
       </c>
       <c r="C6" t="s">
-        <v>9983</v>
+        <v>9975</v>
       </c>
       <c r="D6" t="s">
-        <v>9984</v>
+        <v>9976</v>
       </c>
       <c r="F6">
         <v>76</v>
@@ -31709,22 +31751,22 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>9952</v>
+        <v>9945</v>
       </c>
       <c r="I6" t="s">
-        <v>9985</v>
+        <v>9977</v>
       </c>
       <c r="J6" t="s">
-        <v>9986</v>
+        <v>9978</v>
       </c>
       <c r="K6" t="s">
-        <v>9987</v>
+        <v>9979</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>9988</v>
+        <v>9980</v>
       </c>
       <c r="AC6" t="s">
-        <v>9989</v>
+        <v>9981</v>
       </c>
       <c r="AD6" t="s">
         <v>311</v>
@@ -31739,45 +31781,49 @@
         <v>4730</v>
       </c>
       <c r="AU6" t="s">
-        <v>9990</v>
+        <v>9982</v>
       </c>
       <c r="AV6" t="s">
-        <v>9991</v>
+        <v>9983</v>
       </c>
       <c r="AW6">
         <v>6541</v>
       </c>
       <c r="AX6" t="s">
-        <v>9992</v>
+        <v>9984</v>
       </c>
       <c r="AY6" t="s">
-        <v>9993</v>
+        <v>9985</v>
       </c>
       <c r="BD6" t="s">
-        <v>9994</v>
+        <v>9986</v>
       </c>
       <c r="BF6" t="s">
         <v>383</v>
       </c>
       <c r="BH6" t="s">
-        <v>9961</v>
+        <v>9958</v>
       </c>
       <c r="BI6" t="s">
         <v>466</v>
       </c>
       <c r="BL6" t="s">
-        <v>9995</v>
-      </c>
+        <v>9987</v>
+      </c>
+      <c r="BN6" s="7"/>
+      <c r="BO6" s="7"/>
+      <c r="BP6" s="7"/>
+      <c r="BQ6" s="7"/>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>9971</v>
+        <v>9964</v>
       </c>
       <c r="C7" t="s">
-        <v>9971</v>
+        <v>9964</v>
       </c>
       <c r="D7" t="s">
-        <v>9972</v>
+        <v>9965</v>
       </c>
       <c r="F7">
         <v>42</v>
@@ -31786,22 +31832,22 @@
         <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>9973</v>
+        <v>9947</v>
       </c>
       <c r="I7" t="s">
-        <v>9974</v>
+        <v>9966</v>
       </c>
       <c r="J7" t="s">
-        <v>9975</v>
+        <v>9967</v>
       </c>
       <c r="K7" t="s">
         <v>9808</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>9976</v>
+        <v>9968</v>
       </c>
       <c r="AC7" t="s">
-        <v>9996</v>
+        <v>9988</v>
       </c>
       <c r="AD7" t="s">
         <v>9892</v>
@@ -31810,28 +31856,28 @@
         <v>9898</v>
       </c>
       <c r="AK7" t="s">
-        <v>9997</v>
+        <v>9989</v>
       </c>
       <c r="AN7" t="s">
         <v>4769</v>
       </c>
       <c r="AU7" t="s">
-        <v>9998</v>
+        <v>9990</v>
       </c>
       <c r="AV7" t="s">
-        <v>9980</v>
+        <v>9972</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7" t="s">
-        <v>9999</v>
+        <v>9991</v>
       </c>
       <c r="AY7" t="s">
-        <v>10000</v>
+        <v>9992</v>
       </c>
       <c r="BD7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF7" t="s">
         <v>383</v>
@@ -31844,6 +31890,18 @@
       </c>
       <c r="BL7" t="s">
         <v>255</v>
+      </c>
+      <c r="BN7" s="7">
+        <v>216</v>
+      </c>
+      <c r="BO7" s="7">
+        <v>100</v>
+      </c>
+      <c r="BP7" s="7">
+        <v>2</v>
+      </c>
+      <c r="BQ7" s="7">
+        <v>150</v>
       </c>
       <c r="BT7" s="7"/>
     </row>
@@ -82796,21 +82854,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DDF4BDEBC8CD0F40B25EB9E95A8CB124" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="44613b05c98abfc580f3f2dd84a493cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e90b173b-37e9-4a24-8d1d-2ce602dda436" xmlns:ns3="c550909f-45ce-45a3-96f7-2c03a0037d02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c1573834669f597b122094052f81c0b" ns2:_="" ns3:_="">
     <xsd:import namespace="e90b173b-37e9-4a24-8d1d-2ce602dda436"/>
@@ -83001,10 +83044,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF00C79C-B0DC-456D-AA8D-963D9CA25A88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e90b173b-37e9-4a24-8d1d-2ce602dda436"/>
+    <ds:schemaRef ds:uri="c550909f-45ce-45a3-96f7-2c03a0037d02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -83027,20 +83096,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF00C79C-B0DC-456D-AA8D-963D9CA25A88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e90b173b-37e9-4a24-8d1d-2ce602dda436"/>
-    <ds:schemaRef ds:uri="c550909f-45ce-45a3-96f7-2c03a0037d02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>